--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gamedev\monoprj\ET-Godot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05111C14-080E-4A65-A898-865EC0B094FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77C29B5-EA89-4D2D-913C-73B8D001F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>town/Elvengard/Elvengard</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -501,7 +505,8 @@
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -694,6 +699,23 @@
       </c>
       <c r="G12" s="6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
